--- a/src/test/resources/report-template-v2.xlsx
+++ b/src/test/resources/report-template-v2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4346D-D556-9444-BA52-876A85E980F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{owningUser.fullName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,23 +52,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{所属用户.所属部门}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{modifiedOn}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{owningDept}</t>
+    <t>明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{所属用户.部门}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.itemName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +218,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -252,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,76 +462,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/test/resources/report-template-v2.xlsx
+++ b/src/test/resources/report-template-v2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4346D-D556-9444-BA52-876A85E980F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EBBC63-8957-4E53-B092-BECB4AE49D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,19 +52,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{所属用户.部门}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.itemName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.badField}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{modifiedOn}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{所属用户.部门}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.itemName}</t>
+    <t>主实体记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细实体记录（列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：{modifiedBy} {modifiedOn99}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +106,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,10 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -466,72 +503,90 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="257" scale="10" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>